--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lta-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lta-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.257314</v>
+        <v>0.103879</v>
       </c>
       <c r="H2">
-        <v>0.771942</v>
+        <v>0.311637</v>
       </c>
       <c r="I2">
-        <v>0.798278814653033</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="J2">
-        <v>0.7982788146530329</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.53682066666666</v>
+        <v>38.45264233333334</v>
       </c>
       <c r="N2">
-        <v>103.610462</v>
+        <v>115.357927</v>
       </c>
       <c r="O2">
-        <v>0.2803141013583512</v>
+        <v>0.2975040117664333</v>
       </c>
       <c r="P2">
-        <v>0.2803141013583513</v>
+        <v>0.2975040117664332</v>
       </c>
       <c r="Q2">
-        <v>8.886807473022666</v>
+        <v>3.994422032944334</v>
       </c>
       <c r="R2">
-        <v>79.981267257204</v>
+        <v>35.949798296499</v>
       </c>
       <c r="S2">
-        <v>0.2237688085628748</v>
+        <v>0.05649871279043983</v>
       </c>
       <c r="T2">
-        <v>0.2237688085628748</v>
+        <v>0.05649871279043982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.257314</v>
+        <v>0.103879</v>
       </c>
       <c r="H3">
-        <v>0.771942</v>
+        <v>0.311637</v>
       </c>
       <c r="I3">
-        <v>0.798278814653033</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="J3">
-        <v>0.7982788146530329</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>143.250945</v>
       </c>
       <c r="O3">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876273</v>
       </c>
       <c r="P3">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876272</v>
       </c>
       <c r="Q3">
-        <v>12.28682455391</v>
+        <v>4.960254971885</v>
       </c>
       <c r="R3">
-        <v>110.58142098519</v>
+        <v>44.642294746965</v>
       </c>
       <c r="S3">
-        <v>0.3093808546877815</v>
+        <v>0.070159842578604</v>
       </c>
       <c r="T3">
-        <v>0.3093808546877815</v>
+        <v>0.07015984257860398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.257314</v>
+        <v>0.103879</v>
       </c>
       <c r="H4">
-        <v>0.771942</v>
+        <v>0.311637</v>
       </c>
       <c r="I4">
-        <v>0.798278814653033</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="J4">
-        <v>0.7982788146530329</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.228925</v>
+        <v>18.63107466666667</v>
       </c>
       <c r="N4">
-        <v>36.686775</v>
+        <v>55.893224</v>
       </c>
       <c r="O4">
-        <v>0.0992546521591712</v>
+        <v>0.1441466469015163</v>
       </c>
       <c r="P4">
-        <v>0.09925465215917122</v>
+        <v>0.1441466469015162</v>
       </c>
       <c r="Q4">
-        <v>3.146673607449999</v>
+        <v>1.935377405298667</v>
       </c>
       <c r="R4">
-        <v>28.32006246705</v>
+        <v>17.418396647688</v>
       </c>
       <c r="S4">
-        <v>0.07923288607442229</v>
+        <v>0.02737475691382456</v>
       </c>
       <c r="T4">
-        <v>0.07923288607442229</v>
+        <v>0.02737475691382455</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.257314</v>
+        <v>0.103879</v>
       </c>
       <c r="H5">
-        <v>0.771942</v>
+        <v>0.311637</v>
       </c>
       <c r="I5">
-        <v>0.798278814653033</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="J5">
-        <v>0.7982788146530329</v>
+        <v>0.1899090787212519</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.69151433333333</v>
+        <v>24.41680433333333</v>
       </c>
       <c r="N5">
-        <v>86.07454300000001</v>
+        <v>73.25041299999999</v>
       </c>
       <c r="O5">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="P5">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="Q5">
-        <v>7.382728319167333</v>
+        <v>2.536393217342333</v>
       </c>
       <c r="R5">
-        <v>66.444554872506</v>
+        <v>22.827538956081</v>
       </c>
       <c r="S5">
-        <v>0.1858962653279544</v>
+        <v>0.03587576643838355</v>
       </c>
       <c r="T5">
-        <v>0.1858962653279544</v>
+        <v>0.03587576643838355</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.065022</v>
+        <v>0.257314</v>
       </c>
       <c r="H6">
-        <v>0.195066</v>
+        <v>0.771942</v>
       </c>
       <c r="I6">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="J6">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.53682066666666</v>
+        <v>38.45264233333334</v>
       </c>
       <c r="N6">
-        <v>103.610462</v>
+        <v>115.357927</v>
       </c>
       <c r="O6">
-        <v>0.2803141013583512</v>
+        <v>0.2975040117664333</v>
       </c>
       <c r="P6">
-        <v>0.2803141013583513</v>
+        <v>0.2975040117664332</v>
       </c>
       <c r="Q6">
-        <v>2.245653153388</v>
+        <v>9.894403209359334</v>
       </c>
       <c r="R6">
-        <v>20.210878380492</v>
+        <v>89.04962888423401</v>
       </c>
       <c r="S6">
-        <v>0.0565452927954765</v>
+        <v>0.1399504209990396</v>
       </c>
       <c r="T6">
-        <v>0.05654529279547651</v>
+        <v>0.1399504209990396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.065022</v>
+        <v>0.257314</v>
       </c>
       <c r="H7">
-        <v>0.195066</v>
+        <v>0.771942</v>
       </c>
       <c r="I7">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="J7">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>143.250945</v>
       </c>
       <c r="O7">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876273</v>
       </c>
       <c r="P7">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876272</v>
       </c>
       <c r="Q7">
-        <v>3.10482098193</v>
+        <v>12.28682455391</v>
       </c>
       <c r="R7">
-        <v>27.94338883737</v>
+        <v>110.58142098519</v>
       </c>
       <c r="S7">
-        <v>0.07817904169034304</v>
+        <v>0.1737897913271297</v>
       </c>
       <c r="T7">
-        <v>0.07817904169034304</v>
+        <v>0.1737897913271297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.065022</v>
+        <v>0.257314</v>
       </c>
       <c r="H8">
-        <v>0.195066</v>
+        <v>0.771942</v>
       </c>
       <c r="I8">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="J8">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.228925</v>
+        <v>18.63107466666667</v>
       </c>
       <c r="N8">
-        <v>36.686775</v>
+        <v>55.893224</v>
       </c>
       <c r="O8">
-        <v>0.0992546521591712</v>
+        <v>0.1441466469015163</v>
       </c>
       <c r="P8">
-        <v>0.09925465215917122</v>
+        <v>0.1441466469015162</v>
       </c>
       <c r="Q8">
-        <v>0.7951491613499999</v>
+        <v>4.794036346778666</v>
       </c>
       <c r="R8">
-        <v>7.156342452149999</v>
+        <v>43.14632712100801</v>
       </c>
       <c r="S8">
-        <v>0.02002176608474893</v>
+        <v>0.0678087794503591</v>
       </c>
       <c r="T8">
-        <v>0.02002176608474893</v>
+        <v>0.06780877945035908</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.065022</v>
+        <v>0.257314</v>
       </c>
       <c r="H9">
-        <v>0.195066</v>
+        <v>0.771942</v>
       </c>
       <c r="I9">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="J9">
-        <v>0.2017211853469671</v>
+        <v>0.4704152396738534</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.69151433333333</v>
+        <v>24.41680433333333</v>
       </c>
       <c r="N9">
-        <v>86.07454300000001</v>
+        <v>73.25041299999999</v>
       </c>
       <c r="O9">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="P9">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="Q9">
-        <v>1.865579644982</v>
+        <v>6.282785590227332</v>
       </c>
       <c r="R9">
-        <v>16.790216804838</v>
+        <v>56.545070312046</v>
       </c>
       <c r="S9">
-        <v>0.04697508477639867</v>
+        <v>0.08886624789732502</v>
       </c>
       <c r="T9">
-        <v>0.04697508477639867</v>
+        <v>0.088866247897325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1858003333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.557401</v>
+      </c>
+      <c r="I10">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="J10">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>38.45264233333334</v>
+      </c>
+      <c r="N10">
+        <v>115.357927</v>
+      </c>
+      <c r="O10">
+        <v>0.2975040117664333</v>
+      </c>
+      <c r="P10">
+        <v>0.2975040117664332</v>
+      </c>
+      <c r="Q10">
+        <v>7.144513763080779</v>
+      </c>
+      <c r="R10">
+        <v>64.30062386772701</v>
+      </c>
+      <c r="S10">
+        <v>0.1010548779769538</v>
+      </c>
+      <c r="T10">
+        <v>0.1010548779769538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1858003333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.557401</v>
+      </c>
+      <c r="I11">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="J11">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>47.750315</v>
+      </c>
+      <c r="N11">
+        <v>143.250945</v>
+      </c>
+      <c r="O11">
+        <v>0.3694391181876273</v>
+      </c>
+      <c r="P11">
+        <v>0.3694391181876272</v>
+      </c>
+      <c r="Q11">
+        <v>8.872024443771668</v>
+      </c>
+      <c r="R11">
+        <v>79.84821999394501</v>
+      </c>
+      <c r="S11">
+        <v>0.1254894842818935</v>
+      </c>
+      <c r="T11">
+        <v>0.1254894842818935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1858003333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.557401</v>
+      </c>
+      <c r="I12">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="J12">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>18.63107466666667</v>
+      </c>
+      <c r="N12">
+        <v>55.893224</v>
+      </c>
+      <c r="O12">
+        <v>0.1441466469015163</v>
+      </c>
+      <c r="P12">
+        <v>0.1441466469015162</v>
+      </c>
+      <c r="Q12">
+        <v>3.461659883424889</v>
+      </c>
+      <c r="R12">
+        <v>31.154938950824</v>
+      </c>
+      <c r="S12">
+        <v>0.04896311053733261</v>
+      </c>
+      <c r="T12">
+        <v>0.04896311053733261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1858003333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.557401</v>
+      </c>
+      <c r="I13">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="J13">
+        <v>0.3396756816048946</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>24.41680433333333</v>
+      </c>
+      <c r="N13">
+        <v>73.25041299999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1889102231444233</v>
+      </c>
+      <c r="P13">
+        <v>0.1889102231444233</v>
+      </c>
+      <c r="Q13">
+        <v>4.536650384068111</v>
+      </c>
+      <c r="R13">
+        <v>40.829853456613</v>
+      </c>
+      <c r="S13">
+        <v>0.06416820880871472</v>
+      </c>
+      <c r="T13">
+        <v>0.06416820880871471</v>
       </c>
     </row>
   </sheetData>
